--- a/Doc/StatusTable0927.xlsx
+++ b/Doc/StatusTable0927.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GamePROJ\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project01\GameTeamPro\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8916C12-E61E-4BFD-99D0-A530A5FA5176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A38277-D523-4795-A4A3-0577FCBCE2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="330" windowWidth="21120" windowHeight="13320" xr2:uid="{5D8D4614-B484-4076-8B09-1CB9C6F95ADF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D8D4614-B484-4076-8B09-1CB9C6F95ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="스테이터스" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
   <dimension ref="B1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
